--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1594669.095002859</v>
+        <v>-1596619.32083142</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.36918441426207</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>72.9296476580752</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>182.5295941954892</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.5996910531203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.4315177721688</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>120.0258340400111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>20.57102980333316</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>150.8400357509153</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>6.589216714232156</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>35.87311879344071</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>95.71748262283764</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>104.3004803731285</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>204.8536751047884</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>140.1965940131587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>94.16481274941241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>165.7827619175177</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.1163355383938</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>197.4428243510497</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.91234322528948</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>104.6354350586182</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>184.809281117166</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>172.0936255868333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2731,7 +2731,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463099</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415164</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2968,7 +2968,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463099</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224538</v>
       </c>
     </row>
     <row r="32">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898725</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857177</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692859</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329066</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.361678333737</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789555</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463141</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415222</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941874</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224542</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789553</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U40" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.2873553346313</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1407.279569346567</v>
+        <v>1779.584617183058</v>
       </c>
       <c r="C2" t="n">
-        <v>1407.279569346567</v>
+        <v>1410.622100242646</v>
       </c>
       <c r="D2" t="n">
-        <v>1049.013870739816</v>
+        <v>1336.955789476914</v>
       </c>
       <c r="E2" t="n">
-        <v>663.2256181415721</v>
+        <v>1336.955789476914</v>
       </c>
       <c r="F2" t="n">
-        <v>656.2801173923687</v>
+        <v>925.9698846873064</v>
       </c>
       <c r="G2" t="n">
-        <v>238.3163092905555</v>
+        <v>508.0060765854932</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>180.8113566214961</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>1507.652482896327</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y2" t="n">
-        <v>1507.652482896327</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>325.2978374347316</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>325.2978374347316</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>325.2978374347316</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>825.7212517577275</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>467.455553150977</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>81.66730055273274</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>74.72179980352927</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4641,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>373.0594214943678</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="C7" t="n">
-        <v>373.0594214943678</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="V7" t="n">
-        <v>662.4765915313284</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="W7" t="n">
-        <v>373.0594214943678</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="X7" t="n">
-        <v>373.0594214943678</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="Y7" t="n">
-        <v>373.0594214943678</v>
+        <v>507.1847865657769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1305.667163696621</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="C8" t="n">
-        <v>1305.667163696621</v>
+        <v>924.2198584148894</v>
       </c>
       <c r="D8" t="n">
-        <v>947.4014650898705</v>
+        <v>565.9541598081389</v>
       </c>
       <c r="E8" t="n">
-        <v>561.6132124916262</v>
+        <v>180.1659072098947</v>
       </c>
       <c r="F8" t="n">
-        <v>150.6273077020186</v>
+        <v>173.2204064606912</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>159.2970023992821</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>1695.806495672433</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X8" t="n">
-        <v>1695.806495672433</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y8" t="n">
-        <v>1305.667163696621</v>
+        <v>1679.782215419423</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2080756496231</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.2080756496231</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028562</v>
@@ -5042,10 +5042,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,10 +5057,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5121,22 +5121,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769082</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1894.594339433114</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O12" t="n">
-        <v>2174.134404651812</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2379.156885434021</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>192.3330639344398</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C13" t="n">
-        <v>192.3330639344398</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D13" t="n">
-        <v>192.3330639344398</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>192.3330639344398</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>192.3330639344398</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5227,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324571</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3330639344398</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.3330639344398</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,28 +5297,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,16 +5358,16 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.9270045185177</v>
+        <v>1027.850635690702</v>
       </c>
       <c r="C16" t="n">
-        <v>376.9270045185177</v>
+        <v>858.9144527627952</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>708.7978133504595</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>560.8847197680664</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>413.994772270156</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>245.8194505899766</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>786.5650202467748</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>558.5754693487575</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y16" t="n">
-        <v>558.5754693487575</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5598,19 +5598,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>1020.446367141521</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>792.456816243504</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.0706109654338</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,22 +5738,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>544.6416868225887</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C22" t="n">
-        <v>544.6416868225887</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D22" t="n">
-        <v>394.5250474102529</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>731.3177283550796</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X22" t="n">
-        <v>731.3177283550796</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y22" t="n">
-        <v>544.6416868225887</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1133.156678913841</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>905.1671280158237</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,22 +6306,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C28" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F28" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6409,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S28" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T28" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U28" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="29">
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>721.5398184181049</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1028.859951698067</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6664,7 +6664,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,7 +6701,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2292.946699347402</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2497.969180129611</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6920,22 +6920,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -7017,22 +7017,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1236.836466556558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7075,16 +7075,16 @@
         <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,19 +7093,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254962</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649697</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7129,13 +7129,13 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010315</v>
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7257,22 +7257,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,52 +7330,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254966</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.84894686497</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,28 +7394,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L42" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M42" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103132</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,7 +7600,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7612,7 +7612,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7637,40 +7637,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>735.0407559057238</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,7 +7801,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7819,10 +7819,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270191</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719076</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8769,25 +8769,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.872441903933</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,19 +9006,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>230.7151863772035</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9246,22 +9246,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>242.9997743936049</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>369.0893880493732</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,25 +10188,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>188.8856946302399</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>38.86002301949857</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>272.8719470256807</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10905,10 +10905,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,28 +11139,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>73.64859338270696</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>76.43196988338559</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>283.3646572492185</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>26.33162519174093</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22711,22 +22711,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>98.55881931208368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>16.25443271485959</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>86.35488140631028</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>1.7974928291423</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>89.08017398554131</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6723101268053</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>44.27839330891797</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.77537223492882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.49102776526146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.044853423896711e-13</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96832.5780377093</v>
+        <v>96832.57803770933</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26323,19 +26323,19 @@
         <v>97757.26493442719</v>
       </c>
       <c r="F2" t="n">
+        <v>97757.26493442722</v>
+      </c>
+      <c r="G2" t="n">
         <v>97757.26493442721</v>
       </c>
-      <c r="G2" t="n">
-        <v>97757.26493442722</v>
-      </c>
       <c r="H2" t="n">
-        <v>97757.26493442722</v>
+        <v>97757.26493442719</v>
       </c>
       <c r="I2" t="n">
-        <v>97757.26493442721</v>
+        <v>97757.26493442719</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330356</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963054</v>
+        <v>230928.7312963055</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>54505.51210371252</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26433,31 +26433,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="K4" t="n">
         <v>44593.39482819118</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44593.39482819119</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819117</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>44593.39482819114</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.3948281912</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.39482819122</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,10 +26485,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002538</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-715154.4162124967</v>
+        <v>-715270.3690764032</v>
       </c>
       <c r="C6" t="n">
         <v>-145861.7246168985</v>
@@ -26528,40 +26528,40 @@
         <v>-145861.7246168985</v>
       </c>
       <c r="E6" t="n">
-        <v>-541564.7050780563</v>
+        <v>-541662.1642040282</v>
       </c>
       <c r="F6" t="n">
-        <v>-16404.66860116013</v>
+        <v>-16502.12772713228</v>
       </c>
       <c r="G6" t="n">
-        <v>-16404.66860116011</v>
+        <v>-16502.12772713229</v>
       </c>
       <c r="H6" t="n">
-        <v>-16404.6686011601</v>
+        <v>-16502.12772713231</v>
       </c>
       <c r="I6" t="n">
-        <v>-16404.66860116014</v>
+        <v>-16502.12772713231</v>
       </c>
       <c r="J6" t="n">
-        <v>-270607.0107114864</v>
+        <v>-270607.0107114865</v>
       </c>
       <c r="K6" t="n">
+        <v>-39678.279415181</v>
+      </c>
+      <c r="L6" t="n">
         <v>-39678.27941518102</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-39678.27941518101</v>
       </c>
       <c r="M6" t="n">
         <v>-174479.2946490181</v>
       </c>
       <c r="N6" t="n">
-        <v>-39678.27941518107</v>
+        <v>-39678.27941518096</v>
       </c>
       <c r="O6" t="n">
-        <v>-94183.79151889356</v>
+        <v>-94183.7915188935</v>
       </c>
       <c r="P6" t="n">
-        <v>-39678.27941518107</v>
+        <v>-39678.27941518105</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26756,7 +26756,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26768,16 +26768,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>281.7533939626078</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>141.393178568868</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698089</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>393.2131402174618</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>218.8910649275537</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>218.4458887438521</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>216.2645245303873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>318.0666873979574</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>219.6222923912287</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>7.291863845230523</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>78.38805933893605</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31297,7 +31297,7 @@
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119866</v>
@@ -31306,19 +31306,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q7" t="n">
         <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31476,7 +31476,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318339</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>246.8854746890071</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>563.9097597752163</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
@@ -35966,22 +35966,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36212,16 +36212,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>482.1033309642237</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>576.1943477916178</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>679.5137650998395</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>438.1433995862643</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>126.8730558045727</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>583.2963240761469</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952061</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502434</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015153</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>406.8431667807198</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>325.6896748394099</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
